--- a/biology/Microbiologie/Bursariidae/Bursariidae.xlsx
+++ b/biology/Microbiologie/Bursariidae/Bursariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bursariidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Bursariomorphida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Bursaria, dérivé du latin bursa, bourse, en référence à  la forme de cet organisme.
 </t>
@@ -542,14 +556,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En 1773, Muller fait de Bursaria truncatella la description suivante : 
 « Petit animal visible à l'œil nu, blanchâtre, de la taille d'une demi-ligne, ovale, à l'extrémité, là où l'ouverture est large, obliquement tronquée.
 Il existe un espace de l'ouverture vers la base. Au fond sont visibles plusieurs œufs, trois à cinq sphériques, rouges.
 L'organisme se déplace en roulant lentement de droite à gauche, ou de gauche à droite. Il monte en spirale à la surface de l'eau (parfois, il interrompt l'ascension par un roulis soudain, mais continue bientôt sa montée), et lorsqu'il a touchée la surface trois ou quatre fois, il redescend avec un mouvement similaire mais plus lent.
-Bursaria montre une simple membrane transparente, blanche, pliée en forme de bourse, le petit animal ne se révélant que par son mouvement spontané[1]. »
+Bursaria montre une simple membrane transparente, blanche, pliée en forme de bourse, le petit animal ne se révélant que par son mouvement spontané. »
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muller a observé Bursaria abondamment au printemps, dans des zones aquatiques, marécageuses et boisées, remplies de terre de sphaigne en décomposition[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muller a observé Bursaria abondamment au printemps, dans des zones aquatiques, marécageuses et boisées, remplies de terre de sphaigne en décomposition.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 novembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 novembre 2022) :
 Bursaria (en) Müller, 1773
 Espèce type : Bursaria truncatella Müller, 1773
 Thylacidium</t>
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Bursariidae Bory de St. Vincent, 1826[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Bursariidae Bory de St. Vincent, 1826.
 </t>
         </is>
       </c>
